--- a/input/dictionaries/administration_route_dict.xlsx
+++ b/input/dictionaries/administration_route_dict.xlsx
@@ -1,21 +1,185 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Lab\HEM\T_Wall_Projects_FY20\CvT Database\input\dictionaries\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3BBA7C-03F0-4BC0-A0FD-00966D4325E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$43</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>administration_route_original</t>
+  </si>
+  <si>
+    <t>administration_route_normalized</t>
+  </si>
+  <si>
+    <t>inhalation</t>
+  </si>
+  <si>
+    <t>gavage</t>
+  </si>
+  <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>immersion</t>
+  </si>
+  <si>
+    <t>dermal</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>iv</t>
+  </si>
+  <si>
+    <t>subcutaneous</t>
+  </si>
+  <si>
+    <t>intra-arterial</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>intratracheal</t>
+  </si>
+  <si>
+    <t>dermal vapor</t>
+  </si>
+  <si>
+    <t>ingestion</t>
+  </si>
+  <si>
+    <t>hand immersion</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>repeat iv</t>
+  </si>
+  <si>
+    <t>inhalation and dermal</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>intravenous</t>
+  </si>
+  <si>
+    <t>intraperitoneal</t>
+  </si>
+  <si>
+    <t>abdominal fat injection</t>
+  </si>
+  <si>
+    <t>oral (po)</t>
+  </si>
+  <si>
+    <t>oral/ingestion</t>
+  </si>
+  <si>
+    <t>orally</t>
+  </si>
+  <si>
+    <t>intravenous (femoral vein)</t>
+  </si>
+  <si>
+    <t>oral/gavage</t>
+  </si>
+  <si>
+    <t>oral via gastric gavage</t>
+  </si>
+  <si>
+    <t>dermal application</t>
+  </si>
+  <si>
+    <t>pulmonary (insufflation)</t>
+  </si>
+  <si>
+    <t>pulmonary (passive inhalation)</t>
+  </si>
+  <si>
+    <t>oral gavage</t>
+  </si>
+  <si>
+    <t>im, thigh muscle</t>
+  </si>
+  <si>
+    <t>intravenous infusion</t>
+  </si>
+  <si>
+    <t>intraarterial</t>
+  </si>
+  <si>
+    <t>oral via gastric intubation</t>
+  </si>
+  <si>
+    <t>ip injection</t>
+  </si>
+  <si>
+    <t>ip injected</t>
+  </si>
+  <si>
+    <t>iv - left femoral vein</t>
+  </si>
+  <si>
+    <t>hepatic portal vein</t>
+  </si>
+  <si>
+    <t>dynamic inhalation system</t>
+  </si>
+  <si>
+    <t>inhalation (nose only)</t>
+  </si>
+  <si>
+    <t>intraveonous</t>
+  </si>
+  <si>
+    <t>IV bolus injection</t>
+  </si>
+  <si>
+    <t>IV continuous infusion</t>
+  </si>
+  <si>
+    <t>topical (ear)</t>
+  </si>
+  <si>
+    <t>injection into femoral vein</t>
+  </si>
+  <si>
+    <t>catheter in tail vein</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,17 +216,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +314,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +366,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,291 +559,560 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>administration_route_original</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>administration_route_normalized</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>inhalation</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>inhalation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>gavage</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>oral</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>immersion</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>dermal</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dermal</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>dermal</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>feed</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>oral</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>iv</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>iv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>oral</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>oral</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>subcutaneous</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>iv</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>iv</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>intra-arterial</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>iv</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ip</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>iv</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>intratracheal</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>inhalation</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>dermal vapor</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>dermal</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ingestion</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>oral</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>hand immersion</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>dermal</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>po</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>oral</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>gavage</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>oral</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>repeat iv</t>
-        </is>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C43" xr:uid="{5F9EC76F-2343-4C7D-A074-2B7E9247A961}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>